--- a/biology/Botanique/Putranjivaceae/Putranjivaceae.xlsx
+++ b/biology/Botanique/Putranjivaceae/Putranjivaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Putranjivaceae (les Putranjivacées) sont une famille de plantes à fleurs dicotylédones de l'ordre des Malpighiales qui comprend 210 espèces regroupées en 3 à 4 genres.
 Ce sont des arbres ou des arbustes, à feuillage persistant, des régions tropicales, originaires d'Afrique et de Malaisie.
@@ -512,10 +524,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Putranjiva dérivé du sanskrit putra, frère, et juvi, vie or prospérité, 
-calqué sur le nom vernaculaire de la plante[1].
+calqué sur le nom vernaculaire de la plante.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification phylogénétique situe cette famille dans l'ordre des Malpighiales. Les différents genres qui composent cette famille faisaient partie des Euphorbiacées dans la classification classique.
 </t>
@@ -575,18 +591,20 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (25 mai 2010)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (25 mai 2010) :
 Drypetes Vahl (1807)
 Putranjiva Wall. (1826)
 Sibangea Oliv. (1883)
-Selon Angiosperm Phylogeny Website                        (25 mai 2010)[3] :
+Selon Angiosperm Phylogeny Website                        (25 mai 2010) :
 Drypetes
 Lingelsheimia
 Putranjiva
 Sibangea
-Selon NCBI  (25 mai 2010)[4] :
+Selon NCBI  (25 mai 2010) :
 Drypetes
 Lingelsheimia
 Putranjiva
@@ -618,9 +636,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (25 mai 2010)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (25 mai 2010) :
 genre Drypetes
 Drypetes brownii
 Drypetes deplanchei
